--- a/Output/03_Final Report/Mazhar_Draft/Forecast_2025_Top3_Colombia.xlsx
+++ b/Output/03_Final Report/Mazhar_Draft/Forecast_2025_Top3_Colombia.xlsx
@@ -386,7 +386,7 @@
         <v>45658</v>
       </c>
       <c r="B2" t="n">
-        <v>11.6257249579769</v>
+        <v>11.5405730918352</v>
       </c>
       <c r="C2" t="n">
         <v>10.7878235579822</v>
@@ -395,7 +395,7 @@
         <v>10.7485683323832</v>
       </c>
       <c r="E2" t="n">
-        <v>11.0540389494474</v>
+        <v>11.0256549940669</v>
       </c>
     </row>
     <row r="3">
@@ -403,7 +403,7 @@
         <v>45689</v>
       </c>
       <c r="B3" t="n">
-        <v>10.5856946723214</v>
+        <v>10.5338752813171</v>
       </c>
       <c r="C3" t="n">
         <v>9.98819369188633</v>
@@ -412,7 +412,7 @@
         <v>10.2719432287721</v>
       </c>
       <c r="E3" t="n">
-        <v>10.2819438643266</v>
+        <v>10.2646707339918</v>
       </c>
     </row>
     <row r="4">
@@ -420,7 +420,7 @@
         <v>45717</v>
       </c>
       <c r="B4" t="n">
-        <v>9.61036601585056</v>
+        <v>9.61982218349825</v>
       </c>
       <c r="C4" t="n">
         <v>8.98734751954805</v>
@@ -429,7 +429,7 @@
         <v>8.88740136029801</v>
       </c>
       <c r="E4" t="n">
-        <v>9.1617049652322</v>
+        <v>9.16485702111477</v>
       </c>
     </row>
     <row r="5">
@@ -437,7 +437,7 @@
         <v>45748</v>
       </c>
       <c r="B5" t="n">
-        <v>9.32708178283981</v>
+        <v>9.23582194097369</v>
       </c>
       <c r="C5" t="n">
         <v>8.88226968105941</v>
@@ -446,7 +446,7 @@
         <v>9.30000515493647</v>
       </c>
       <c r="E5" t="n">
-        <v>9.1697855396119</v>
+        <v>9.13936559232319</v>
       </c>
     </row>
     <row r="6">
@@ -454,7 +454,7 @@
         <v>45778</v>
       </c>
       <c r="B6" t="n">
-        <v>9.28133234882866</v>
+        <v>9.24403360444852</v>
       </c>
       <c r="C6" t="n">
         <v>8.78459440252731</v>
@@ -463,7 +463,7 @@
         <v>8.90474326849884</v>
       </c>
       <c r="E6" t="n">
-        <v>8.9902233399516</v>
+        <v>8.97779042515822</v>
       </c>
     </row>
     <row r="7">
@@ -471,7 +471,7 @@
         <v>45809</v>
       </c>
       <c r="B7" t="n">
-        <v>8.87472089886572</v>
+        <v>8.75036574554176</v>
       </c>
       <c r="C7" t="n">
         <v>8.53719860379754</v>
@@ -480,7 +480,7 @@
         <v>8.90755466246143</v>
       </c>
       <c r="E7" t="n">
-        <v>8.77315805504157</v>
+        <v>8.73170633726691</v>
       </c>
     </row>
     <row r="8">
@@ -488,7 +488,7 @@
         <v>45839</v>
       </c>
       <c r="B8" t="n">
-        <v>9.46076791272233</v>
+        <v>9.37630271336025</v>
       </c>
       <c r="C8" t="n">
         <v>8.89980482720307</v>
@@ -497,7 +497,7 @@
         <v>9.09766057997448</v>
       </c>
       <c r="E8" t="n">
-        <v>9.15274443996663</v>
+        <v>9.1245893735126</v>
       </c>
     </row>
     <row r="9">
@@ -505,7 +505,7 @@
         <v>45870</v>
       </c>
       <c r="B9" t="n">
-        <v>9.04747880443377</v>
+        <v>8.95610533086352</v>
       </c>
       <c r="C9" t="n">
         <v>8.50610307847135</v>
@@ -514,7 +514,7 @@
         <v>8.90934570726197</v>
       </c>
       <c r="E9" t="n">
-        <v>8.82097586338903</v>
+        <v>8.79051803886561</v>
       </c>
     </row>
     <row r="10">
@@ -522,7 +522,7 @@
         <v>45901</v>
       </c>
       <c r="B10" t="n">
-        <v>8.8512513119247</v>
+        <v>8.77140470591527</v>
       </c>
       <c r="C10" t="n">
         <v>8.39242519042638</v>
@@ -531,7 +531,7 @@
         <v>8.76405682699908</v>
       </c>
       <c r="E10" t="n">
-        <v>8.66924444311672</v>
+        <v>8.64262890778024</v>
       </c>
     </row>
     <row r="11">
@@ -539,7 +539,7 @@
         <v>45931</v>
       </c>
       <c r="B11" t="n">
-        <v>8.20546874283053</v>
+        <v>8.16878221872413</v>
       </c>
       <c r="C11" t="n">
         <v>7.95290162799037</v>
@@ -548,7 +548,7 @@
         <v>8.44564303038375</v>
       </c>
       <c r="E11" t="n">
-        <v>8.20133780040155</v>
+        <v>8.18910895903275</v>
       </c>
     </row>
     <row r="12">
@@ -556,7 +556,7 @@
         <v>45962</v>
       </c>
       <c r="B12" t="n">
-        <v>7.94624683755913</v>
+        <v>7.98371116936785</v>
       </c>
       <c r="C12" t="n">
         <v>7.69079507012444</v>
@@ -565,7 +565,7 @@
         <v>7.93307451392235</v>
       </c>
       <c r="E12" t="n">
-        <v>7.85670547386864</v>
+        <v>7.86919358447155</v>
       </c>
     </row>
     <row r="13">
@@ -573,7 +573,7 @@
         <v>45992</v>
       </c>
       <c r="B13" t="n">
-        <v>8.58619856438039</v>
+        <v>8.58012348992957</v>
       </c>
       <c r="C13" t="n">
         <v>7.95325673697908</v>
@@ -582,7 +582,7 @@
         <v>8.4412193736851</v>
       </c>
       <c r="E13" t="n">
-        <v>8.32689155834819</v>
+        <v>8.32486653353125</v>
       </c>
     </row>
   </sheetData>
